--- a/ind_potr_rab.xlsx
+++ b/ind_potr_rab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozhi\OneDrive\Рабочий стол\Новая папка\раб\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A520BF7-62DC-4D30-A677-D3F4C7FEEBE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECDBA6-0A3F-4E0A-B03D-D5F3CC5BB639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,81 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Индекс потребительской уверенности</t>
-  </si>
-  <si>
-    <t>2023 год</t>
-  </si>
-  <si>
-    <t>2022 год</t>
-  </si>
-  <si>
-    <t>2021 год</t>
-  </si>
-  <si>
-    <t>2020 год</t>
-  </si>
-  <si>
-    <t>2019 год</t>
-  </si>
-  <si>
-    <t>2018 год</t>
-  </si>
-  <si>
-    <t>2017 год</t>
-  </si>
-  <si>
-    <t>2016 год</t>
-  </si>
-  <si>
-    <t>2015 год</t>
-  </si>
-  <si>
-    <t>2014 год</t>
-  </si>
-  <si>
-    <t>2013 год</t>
-  </si>
-  <si>
-    <t>2012 год</t>
-  </si>
-  <si>
-    <t>2011 год</t>
-  </si>
-  <si>
-    <t>2010 год</t>
-  </si>
-  <si>
-    <t>2009 год</t>
-  </si>
-  <si>
-    <t>2008 год</t>
-  </si>
-  <si>
-    <t>2007 год</t>
-  </si>
-  <si>
-    <t>2006 год</t>
-  </si>
-  <si>
-    <t>2005 год</t>
-  </si>
-  <si>
-    <t>2004 год</t>
-  </si>
-  <si>
-    <t>2003 год</t>
-  </si>
-  <si>
-    <t>2002 год</t>
-  </si>
-  <si>
-    <t>2001 год</t>
-  </si>
-  <si>
-    <t>2000 год</t>
   </si>
 </sst>
 </file>
@@ -419,84 +347,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>2000</v>
+      </c>
+      <c r="C1">
+        <v>2001</v>
+      </c>
+      <c r="D1">
+        <v>2002</v>
+      </c>
+      <c r="E1">
+        <v>2003</v>
+      </c>
+      <c r="F1">
+        <v>2004</v>
+      </c>
+      <c r="G1">
+        <v>2005</v>
+      </c>
+      <c r="H1">
+        <v>2006</v>
+      </c>
+      <c r="I1">
+        <v>2007</v>
+      </c>
+      <c r="J1">
+        <v>2008</v>
+      </c>
+      <c r="K1">
+        <v>2009</v>
+      </c>
+      <c r="L1">
+        <v>2010</v>
+      </c>
+      <c r="M1">
+        <v>2011</v>
+      </c>
+      <c r="N1">
+        <v>2012</v>
+      </c>
+      <c r="O1">
+        <v>2013</v>
+      </c>
+      <c r="P1">
+        <v>2014</v>
+      </c>
+      <c r="Q1">
+        <v>2015</v>
+      </c>
+      <c r="R1">
+        <v>2016</v>
+      </c>
+      <c r="S1">
+        <v>2017</v>
+      </c>
+      <c r="T1">
+        <v>2018</v>
+      </c>
+      <c r="U1">
+        <v>2019</v>
+      </c>
+      <c r="V1">
+        <v>2020</v>
+      </c>
+      <c r="W1">
+        <v>2021</v>
+      </c>
+      <c r="X1">
+        <v>2022</v>
+      </c>
+      <c r="Y1">
+        <v>2023</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
